--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-08-the-sort-function-horizontal-sort.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-08-the-sort-function-horizontal-sort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{53FA173D-0D23-4173-B791-67EFEB18843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEE8477-5A55-4E8B-95B1-7D592A5C4885}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE98D31-940E-4BFF-AE5C-13A80EC0745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sort Horizontally" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Movie</t>
   </si>
@@ -229,13 +229,58 @@
   </si>
   <si>
     <t>Steps</t>
+  </si>
+  <si>
+    <t>Emma StoneJ.K. SimmonsJohn LegendRyan Gosling</t>
+  </si>
+  <si>
+    <t>Emma StoneMarisa TomeiRyan GoslingSteve Carell</t>
+  </si>
+  <si>
+    <t>Emma StoneJosh BrolinRyan GoslingSean Penn</t>
+  </si>
+  <si>
+    <t>Chris EvansChris HemsworthMarkRuffaloScarlett Johansson</t>
+  </si>
+  <si>
+    <t>Amy AdamsBradley CooperChristian BaleJennifer Lawrence</t>
+  </si>
+  <si>
+    <t>Amy AdamsChristian BaleSam RockwellTyler Perry</t>
+  </si>
+  <si>
+    <t>Kate WinsletMiles TellerShailene WoodleyTheo James</t>
+  </si>
+  <si>
+    <t>Jeff DanielsNaomi WattsShailene WoodleyTheo James</t>
+  </si>
+  <si>
+    <t>James FrancoJonah HillMichael CaraSeth Rogan</t>
+  </si>
+  <si>
+    <t>Danny McBrideJames FrancoJudd ApatowSeth Rogan</t>
+  </si>
+  <si>
+    <t>Christian BaleMarisa TomeiRyan GoslingSteve Carell</t>
+  </si>
+  <si>
+    <t>Diana BangJames FrancoLizzy CaplanSeth Rogan</t>
+  </si>
+  <si>
+    <t>Brad PittGeorge ClooneyJulia RobertsMatt Damon</t>
+  </si>
+  <si>
+    <t>Brad PittFrances McDormundGeorge ClooneyTilda Swinton</t>
+  </si>
+  <si>
+    <t>use Conditional Formatting =&gt; Highlight Cells Rules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +316,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,13 +350,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
@@ -602,19 +655,18 @@
     <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="55.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="50.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -630,9 +682,20 @@
       <c r="E3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,8 +711,12 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>_xlfn.TEXTJOIN(,TRUE,_xlfn._xlws.SORT(B4:E4,,1,TRUE))</f>
+        <v>Emma StoneJ.K. SimmonsJohn LegendRyan Gosling</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -665,8 +732,12 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G19" si="0">_xlfn.TEXTJOIN(,TRUE,_xlfn._xlws.SORT(B5:E5,,1,TRUE))</f>
+        <v>Emma StoneMarisa TomeiRyan GoslingSteve Carell</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,8 +753,12 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Emma StoneJosh BrolinRyan GoslingSean Penn</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,8 +774,12 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris EvansChris HemsworthMarkRuffaloScarlett Johansson</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,8 +795,12 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Amy AdamsBradley CooperChristian BaleJennifer Lawrence</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,8 +816,12 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Amy AdamsChristian BaleSam RockwellTyler Perry</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -750,8 +837,12 @@
       <c r="E10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kate WinsletMiles TellerShailene WoodleyTheo James</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -767,8 +858,12 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jeff DanielsNaomi WattsShailene WoodleyTheo James</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -784,8 +879,12 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>James FrancoJonah HillMichael CaraSeth Rogan</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,8 +900,12 @@
       <c r="E13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Danny McBrideJames FrancoJudd ApatowSeth Rogan</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -818,8 +921,12 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Christian BaleMarisa TomeiRyan GoslingSteve Carell</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -835,8 +942,12 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Diana BangJames FrancoLizzy CaplanSeth Rogan</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,8 +963,12 @@
       <c r="E16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>James FrancoJonah HillMichael CaraSeth Rogan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -869,8 +984,12 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Brad PittGeorge ClooneyJulia RobertsMatt Damon</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -886,8 +1005,12 @@
       <c r="E18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>Brad PittFrances McDormundGeorge ClooneyTilda Swinton</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,40 +1026,126 @@
       <c r="E19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Kate WinsletMiles TellerShailene WoodleyTheo James</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="3"/>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G22:G37">
-    <sortCondition ref="G22:G37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G25:G40">
+    <sortCondition ref="G32:G40"/>
   </sortState>
+  <conditionalFormatting sqref="G25:G40">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
